--- a/figures/result.xlsx
+++ b/figures/result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Thesis\figures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215C864D-657D-42BC-8325-1A2278437297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9096" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,80 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+  <si>
+    <t>DCTM</t>
+  </si>
+  <si>
+    <t>DETM</t>
+  </si>
+  <si>
+    <t>Our model</t>
+  </si>
+  <si>
+    <t>PPL</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>K=30, Undebates(7507, 6706)</t>
+  </si>
+  <si>
+    <t>TETM</t>
+  </si>
+  <si>
+    <t>K=30, NIPS 2019</t>
+  </si>
+  <si>
+    <t>k=20 20newsgroup</t>
+  </si>
+  <si>
+    <t>ETM</t>
+  </si>
+  <si>
+    <t>TECTM</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t>prodLDA</t>
+  </si>
+  <si>
+    <t>ProdLDA</t>
+  </si>
+  <si>
+    <t>k=20 Reuters</t>
+  </si>
+  <si>
+    <t>prodlda 20newsgroups</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +120,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +148,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210CD5CA-F90C-4341-9942-BF70B77E2C85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12954000" y="830580"/>
+          <a:ext cx="7680960" cy="5059680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +478,421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4205.1370131311296</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1.71249181621159E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.95333333333333303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2797.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.2634000486064799E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2746.37182617187</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.15243051702325899</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.64266666666666605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4103.8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9.2382615074338606E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.42939130434782602</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3678.1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4898.3999999999996</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2282.3000000000002</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.120474770706218</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.51652525252525205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1960.84167480468</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.20068286548961201</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.73333333333333295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5461</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.502</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5332.8833333333296</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.124379055296422</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.32145454545454499</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.20020138133655799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="I12" s="1">
+        <v>2781.1484375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2442.67684080563</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.168458262356844</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2538.1758472483498</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.15368111350319599</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.14628021933815599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1640.5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.19062916724128301</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1715.5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.15924617010929301</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.33679999999999999</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>3434.94116210937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6018.52587890625</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7.2486782073974604E-2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="E16" s="2">
+        <v>9057.869140625</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.4493653991005599E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.70320000000000005</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1954.37841796875</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.20000790682705899</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1944.55444335937</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.193739197470925</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.50880000000000003</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2">
+        <v>478.799634857108</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.24827364141290001</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="E20" s="2">
+        <v>507.10662818515999</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.19254405281760401</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.55359999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3">
+        <v>279</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.21315069386612501</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>336.8</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.20032515917374</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.2112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2">
+        <v>745.7</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.223</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="E22" s="2">
+        <v>606</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2">
+        <v>259.60003662109301</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.23712570884011</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E23" s="2">
+        <v>263.03048706054602</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.22588178461248201</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.36720000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="3"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>